--- a/biaya.xlsx
+++ b/biaya.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Biaya PKM</t>
   </si>
@@ -117,10 +117,19 @@
     <t>Pembuatan Laporan</t>
   </si>
   <si>
-    <t>Paket</t>
-  </si>
-  <si>
     <t>Sertifikat SSL</t>
+  </si>
+  <si>
+    <t>Transportasi untuk keperluan penlusuran perlengkapan dan wawancara</t>
+  </si>
+  <si>
+    <t>Orang</t>
+  </si>
+  <si>
+    <t>Rangkap</t>
+  </si>
+  <si>
+    <t>Biaya tak terduga</t>
   </si>
 </sst>
 </file>
@@ -130,7 +139,7 @@
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -178,7 +187,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -194,8 +203,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -492,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J34"/>
+  <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,8 +649,8 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="J12" s="8">
-        <f>SUM(G12,G19,G29,G34)</f>
-        <v>7340000</v>
+        <f>SUM(G12,G19,G27,G34)</f>
+        <v>8250000</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -673,7 +691,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -736,11 +754,11 @@
       </c>
       <c r="G19" s="7">
         <f>SUM(F19:F23)</f>
-        <v>3290000</v>
+        <v>3300000</v>
       </c>
       <c r="H19" s="2">
         <f>G19/D2</f>
-        <v>0.26319999999999999</v>
+        <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -757,8 +775,7 @@
         <v>40000</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" ref="F20:F23" si="2">E20*C20</f>
-        <v>40000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -775,7 +792,7 @@
         <v>200000</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F20:F23" si="2">E21*C21</f>
         <v>200000</v>
       </c>
     </row>
@@ -815,58 +832,76 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C29">
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E27" s="7">
         <v>250000</v>
       </c>
-      <c r="F29" s="7">
-        <f>E29*C29</f>
+      <c r="F27" s="7">
+        <f>E27*C27</f>
         <v>500000</v>
       </c>
-      <c r="G29" s="7">
-        <f>SUM(F29)</f>
-        <v>500000</v>
-      </c>
-      <c r="H29" s="2">
-        <f>G29/D2</f>
-        <v>0.04</v>
+      <c r="G27" s="7">
+        <f>SUM(F27:F28)</f>
+        <v>950000</v>
+      </c>
+      <c r="H27" s="2">
+        <f>G27/D2</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="45">
+      <c r="B28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="10">
+        <v>3</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="11">
+        <v>150000</v>
+      </c>
+      <c r="F28" s="11">
+        <f>E28*C28</f>
+        <v>450000</v>
       </c>
     </row>
     <row r="32" spans="2:8">
@@ -902,25 +937,33 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E34" s="7">
-        <v>250000</v>
+        <v>50000</v>
       </c>
       <c r="F34" s="7">
         <f>E34*C34</f>
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="G34" s="7">
-        <f>SUM(F34)</f>
-        <v>250000</v>
+        <f>SUM(F34:F35)</f>
+        <v>700000</v>
       </c>
       <c r="H34" s="2">
         <f>G34/D2</f>
-        <v>0.02</v>
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="7">
+        <v>500000</v>
       </c>
     </row>
   </sheetData>

--- a/biaya.xlsx
+++ b/biaya.xlsx
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -772,9 +772,10 @@
         <v>20</v>
       </c>
       <c r="E20" s="7">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="F20" s="7">
+        <f>E20*C20</f>
         <v>50000</v>
       </c>
     </row>
@@ -792,7 +793,7 @@
         <v>200000</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" ref="F20:F23" si="2">E21*C21</f>
+        <f t="shared" ref="F21:F23" si="2">E21*C21</f>
         <v>200000</v>
       </c>
     </row>
